--- a/data/financial_statements/sofp/HES.xlsx
+++ b/data/financial_statements/sofp/HES.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Cash and Short Term Investments</t>
@@ -128,9 +248,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -183,12 +300,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -485,875 +599,887 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN36"/>
+  <dimension ref="A1:AO36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:41">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B2">
+        <v>2486000000</v>
+      </c>
+      <c r="C2">
         <v>2384000000</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>2159000000</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>1370000000</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>2713000000</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>2419000000</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>2430000000</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>1866000000</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>1739000000</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>1285000000</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>1646000000</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>2080000000</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>1545000000</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>1863000000</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>2208000000</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>2300000000</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>2694000000</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>3004000000</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>2908000000</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>3726000000</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>4847000000</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>2526000000</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>2492000000</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>2686000000</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>2732000000</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>3529000000</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>3095000000</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>3557000000</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>2716000000</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>3013000000</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>931000000</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>1506000000</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>2444000000</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>4120000000</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>2205000000</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>1288000000</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>1814000000</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>321000000</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>725000000</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>444000000</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
+    <row r="3" spans="1:41">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3">
         <v>1375000000</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>1406000000</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>1524000000</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>1211000000</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>1094000000</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>1002000000</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>1011000000</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>860000000</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>699000000</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>596000000</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>794000000</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>1170000000</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>1122000000</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>1060000000</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>1116000000</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>1001000000</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>1182000000</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>1075000000</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>997000000</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>1024000000</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>1043000000</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>938000000</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>912000000</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>1026000000</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>853000000</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>1048000000</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>852000000</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>1159000000</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>1522000000</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>1794000000</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>1711000000</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>2073000000</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>3059000000</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>2698000000</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>3225000000</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>3525000000</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>1777000000</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>1954000000</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>1840000000</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
+    <row r="4" spans="1:41">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4">
         <v>278000000</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>317000000</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>243000000</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>223000000</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>262000000</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>241000000</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>219000000</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>378000000</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>422000000</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>360000000</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>230000000</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>261000000</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>289000000</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>278000000</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>274000000</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>245000000</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>263000000</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>231000000</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>239000000</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>232000000</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>372000000</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>376000000</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>377000000</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>323000000</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>403000000</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>377000000</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>416000000</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>399000000</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>535000000</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>569000000</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>546000000</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>527000000</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>817000000</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>842000000</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>1055000000</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>954000000</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>695000000</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>683000000</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>686000000</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+    <row r="5" spans="1:41">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B5">
+        <v>1445000000</v>
+      </c>
+      <c r="C5">
         <v>86000000</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>87000000</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>129000000</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>199000000</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>117000000</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>296000000</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>426000000</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>104000000</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>730000000</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>513000000</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>1166000000</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>180000000</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>124000000</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>138000000</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>144000000</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>519000000</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>52000000</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>480000000</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>52000000</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>54000000</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>142000000</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>464000000</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>196000000</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>195000000</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>108000000</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>111000000</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>120000000</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>130000000</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>527000000</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>632000000</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>560000000</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>1269000000</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>869000000</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>3022000000</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>1480000000</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>2306000000</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <v>6464000000</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>6630000000</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <v>8448000000</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+    <row r="6" spans="1:41">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B6">
+        <v>3931000000</v>
+      </c>
+      <c r="C6">
         <v>4123000000</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>3969000000</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>3266000000</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>4346000000</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>3892000000</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>3969000000</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>3522000000</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>3081000000</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>3136000000</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>3115000000</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>4270000000</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>3156000000</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>3398000000</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>3684000000</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>3834000000</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>4459000000</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>4501000000</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>4694000000</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>5014000000</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>6157000000</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>4083000000</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>4270000000</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>4171000000</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>4276000000</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>4893000000</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>4631000000</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>4945000000</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>4404000000</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>5597000000</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>3926000000</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>4323000000</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>6313000000</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>8865000000</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>8767000000</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>7048000000</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>8599000000</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>9257000000</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>9992000000</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>11418000000</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+    <row r="7" spans="1:41">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B7">
+        <v>15132000000</v>
+      </c>
+      <c r="C7">
         <v>15092000000</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>14818000000</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>14489000000</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>14182000000</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>13954000000</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>13657000000</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>13863000000</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>14115000000</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>14235000000</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>14825000000</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>14811000000</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>16814000000</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>16449000000</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>16107000000</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>15898000000</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>16083000000</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>16013000000</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>15869000000</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>16181000000</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>16192000000</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>20279000000</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>22793000000</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>23201000000</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>23595000000</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>25537000000</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>25769000000</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>26241000000</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>26352000000</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>26883000000</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <v>27298000000</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <v>27208000000</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>27517000000</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>27667000000</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>27236000000</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>29166000000</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <v>28771000000</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <v>27414000000</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>26170000000</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>25651000000</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8">
+    <row r="8" spans="1:41">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8">
         <v>2000000</v>
-      </c>
-      <c r="F8">
-        <v>4000000</v>
       </c>
       <c r="G8">
         <v>4000000</v>
@@ -1362,10 +1488,10 @@
         <v>4000000</v>
       </c>
       <c r="I8">
+        <v>4000000</v>
+      </c>
+      <c r="J8">
         <v>5000000</v>
-      </c>
-      <c r="J8">
-        <v>6000000</v>
       </c>
       <c r="K8">
         <v>6000000</v>
@@ -1374,33 +1500,33 @@
         <v>6000000</v>
       </c>
       <c r="M8">
+        <v>6000000</v>
+      </c>
+      <c r="N8">
         <v>179000000</v>
       </c>
-      <c r="AH8">
+      <c r="AI8">
         <v>145000000</v>
       </c>
-      <c r="AI8">
+      <c r="AJ8">
         <v>213000000</v>
       </c>
-      <c r="AJ8">
+      <c r="AK8">
         <v>485000000</v>
       </c>
-      <c r="AL8">
+      <c r="AM8">
         <v>441000000</v>
       </c>
-      <c r="AM8">
+      <c r="AN8">
         <v>380000000</v>
       </c>
-      <c r="AN8">
+      <c r="AO8">
         <v>337000000</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>360000000</v>
+    <row r="9" spans="1:41">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="C9">
         <v>360000000</v>
@@ -1463,10 +1589,10 @@
         <v>360000000</v>
       </c>
       <c r="W9">
+        <v>360000000</v>
+      </c>
+      <c r="X9">
         <v>350000000</v>
-      </c>
-      <c r="X9">
-        <v>375000000</v>
       </c>
       <c r="Y9">
         <v>375000000</v>
@@ -1484,13 +1610,13 @@
         <v>375000000</v>
       </c>
       <c r="AD9">
-        <v>1473000000</v>
+        <v>375000000</v>
       </c>
       <c r="AE9">
         <v>1473000000</v>
       </c>
       <c r="AF9">
-        <v>1858000000</v>
+        <v>1473000000</v>
       </c>
       <c r="AG9">
         <v>1858000000</v>
@@ -1502,10 +1628,10 @@
         <v>1858000000</v>
       </c>
       <c r="AJ9">
+        <v>1858000000</v>
+      </c>
+      <c r="AK9">
         <v>1984000000</v>
-      </c>
-      <c r="AK9">
-        <v>1869000000</v>
       </c>
       <c r="AL9">
         <v>1869000000</v>
@@ -1516,1899 +1642,1929 @@
       <c r="AN9">
         <v>1869000000</v>
       </c>
+      <c r="AO9">
+        <v>1869000000</v>
+      </c>
     </row>
-    <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
+    <row r="10" spans="1:41">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10">
         <v>139000000</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>147000000</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>65000000</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>71000000</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>26000000</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>21000000</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>41000000</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>59000000</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>67000000</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>78000000</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>77000000</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>80000000</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>18000000</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>21000000</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>22000000</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>21000000</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>10000000</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>18000000</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>22000000</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>21000000</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>1480000000</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>25000000</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>23000000</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>59000000</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>3257000000</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>3043000000</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>2832000000</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>2653000000</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>2109000000</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>2504000000</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>2356000000</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>2371000000</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>1940000000</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>2499000000</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>2207000000</v>
       </c>
-      <c r="AK10">
+      <c r="AL10">
         <v>2319000000</v>
       </c>
-      <c r="AL10">
+      <c r="AM10">
         <v>2617000000</v>
       </c>
-      <c r="AM10">
+      <c r="AN10">
         <v>2753000000</v>
       </c>
-      <c r="AN10">
+      <c r="AO10">
         <v>2742000000</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+    <row r="11" spans="1:41">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B11">
+        <v>1970000000</v>
+      </c>
+      <c r="C11">
         <v>720000000</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>701000000</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>723000000</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>651000000</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>744000000</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>631000000</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>618000000</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>567000000</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>672000000</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>642000000</v>
-      </c>
-      <c r="L11">
-        <v>626000000</v>
       </c>
       <c r="M11">
         <v>626000000</v>
       </c>
       <c r="N11">
+        <v>626000000</v>
+      </c>
+      <c r="O11">
         <v>571000000</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>586000000</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>557000000</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>510000000</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>583000000</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>523000000</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>495000000</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>382000000</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>398000000</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>360000000</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>330000000</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>316000000</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>397000000</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>416000000</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>415000000</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>373000000</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>394000000</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <v>357000000</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <v>356000000</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>348000000</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <v>500000000</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>498000000</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>534000000</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <v>1196000000</v>
       </c>
-      <c r="AL11">
+      <c r="AM11">
         <v>298000000</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
         <v>264000000</v>
       </c>
-      <c r="AN11">
+      <c r="AO11">
         <v>362000000</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+    <row r="12" spans="1:41">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B12">
+        <v>17102000000</v>
+      </c>
+      <c r="C12">
         <v>16928000000</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>16629000000</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>16049000000</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>15673000000</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>15084000000</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>14669000000</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>14882000000</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>15146000000</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>15334000000</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>15905000000</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>15874000000</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>17880000000</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>17398000000</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>17074000000</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>16837000000</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>16974000000</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>16966000000</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>16770000000</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>17058000000</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>16955000000</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>22517000000</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>23528000000</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>23929000000</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>24345000000</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>29566000000</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>29603000000</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>29863000000</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <v>29753000000</v>
       </c>
-      <c r="AD12">
+      <c r="AE12">
         <v>30859000000</v>
       </c>
-      <c r="AE12">
+      <c r="AF12">
         <v>31632000000</v>
       </c>
-      <c r="AF12">
+      <c r="AG12">
         <v>31778000000</v>
       </c>
-      <c r="AG12">
+      <c r="AH12">
         <v>32094000000</v>
       </c>
-      <c r="AH12">
+      <c r="AI12">
         <v>32110000000</v>
       </c>
-      <c r="AI12">
+      <c r="AJ12">
         <v>32304000000</v>
       </c>
-      <c r="AJ12">
+      <c r="AK12">
         <v>34376000000</v>
       </c>
-      <c r="AK12">
+      <c r="AL12">
         <v>34155000000</v>
       </c>
-      <c r="AL12">
+      <c r="AM12">
         <v>32639000000</v>
       </c>
-      <c r="AM12">
+      <c r="AN12">
         <v>31436000000</v>
       </c>
-      <c r="AN12">
+      <c r="AO12">
         <v>30961000000</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+    <row r="13" spans="1:41">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B13">
+        <v>21729000000</v>
+      </c>
+      <c r="C13">
         <v>21643000000</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>21180000000</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>19798000000</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>20515000000</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>19490000000</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>19166000000</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>18951000000</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>18821000000</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>18969000000</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>19546000000</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>20717000000</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>21782000000</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>21631000000</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>21695000000</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>21716000000</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>21433000000</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>21467000000</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>21464000000</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>22072000000</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>23112000000</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>26600000000</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>27798000000</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>28100000000</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>28621000000</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>34459000000</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>34234000000</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>34808000000</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <v>34157000000</v>
       </c>
-      <c r="AD13">
+      <c r="AE13">
         <v>36456000000</v>
       </c>
-      <c r="AE13">
+      <c r="AF13">
         <v>35558000000</v>
       </c>
-      <c r="AF13">
+      <c r="AG13">
         <v>36101000000</v>
       </c>
-      <c r="AG13">
+      <c r="AH13">
         <v>38407000000</v>
       </c>
-      <c r="AH13">
+      <c r="AI13">
         <v>40975000000</v>
       </c>
-      <c r="AI13">
+      <c r="AJ13">
         <v>41071000000</v>
       </c>
-      <c r="AJ13">
+      <c r="AK13">
         <v>41424000000</v>
       </c>
-      <c r="AK13">
+      <c r="AL13">
         <v>42754000000</v>
       </c>
-      <c r="AL13">
+      <c r="AM13">
         <v>41896000000</v>
       </c>
-      <c r="AM13">
+      <c r="AN13">
         <v>41428000000</v>
       </c>
-      <c r="AN13">
+      <c r="AO13">
         <v>42379000000</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14">
+    <row r="14" spans="1:41">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14">
         <v>321000000</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>359000000</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>312000000</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>220000000</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>210000000</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>178000000</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>172000000</v>
-      </c>
-      <c r="I14">
-        <v>200000000</v>
       </c>
       <c r="J14">
         <v>200000000</v>
       </c>
       <c r="K14">
+        <v>200000000</v>
+      </c>
+      <c r="L14">
         <v>307000000</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>431000000</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>411000000</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>396000000</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>353000000</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>399000000</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>495000000</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>383000000</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>363000000</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>375000000</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>435000000</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>421000000</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>504000000</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>565000000</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>433000000</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>458000000</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>525000000</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <v>346000000</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <v>457000000</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <v>537000000</v>
       </c>
-      <c r="AE14">
+      <c r="AF14">
         <v>616000000</v>
       </c>
-      <c r="AF14">
+      <c r="AG14">
         <v>681000000</v>
       </c>
-      <c r="AG14">
+      <c r="AH14">
         <v>708000000</v>
       </c>
-      <c r="AH14">
+      <c r="AI14">
         <v>1712000000</v>
       </c>
-      <c r="AI14">
+      <c r="AJ14">
         <v>1529000000</v>
       </c>
-      <c r="AJ14">
+      <c r="AK14">
         <v>2067000000</v>
       </c>
-      <c r="AK14">
+      <c r="AL14">
         <v>2109000000</v>
       </c>
-      <c r="AL14">
+      <c r="AM14">
         <v>453000000</v>
       </c>
-      <c r="AM14">
+      <c r="AN14">
         <v>565000000</v>
       </c>
-      <c r="AN14">
+      <c r="AO14">
         <v>571000000</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15">
+    <row r="15" spans="1:41">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15">
         <v>1703000000</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>1741000000</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>1749000000</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>1710000000</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>1578000000</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>1480000000</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>1254000000</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>1251000000</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>1074000000</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>1110000000</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>1334000000</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>1803000000</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>1570000000</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>1541000000</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>1369000000</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>1560000000</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>1394000000</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>1446000000</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>1251000000</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>1337000000</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>1570000000</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>1430000000</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>1343000000</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>1609000000</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>1433000000</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>1421000000</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>1660000000</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>1997000000</v>
       </c>
-      <c r="AD15">
+      <c r="AE15">
         <v>1930000000</v>
       </c>
-      <c r="AE15">
+      <c r="AF15">
         <v>2495000000</v>
       </c>
-      <c r="AF15">
+      <c r="AG15">
         <v>2427000000</v>
       </c>
-      <c r="AG15">
+      <c r="AH15">
         <v>3781000000</v>
       </c>
-      <c r="AH15">
+      <c r="AI15">
         <v>2954000000</v>
       </c>
-      <c r="AI15">
+      <c r="AJ15">
         <v>3063000000</v>
       </c>
-      <c r="AJ15">
+      <c r="AK15">
         <v>3001000000</v>
       </c>
-      <c r="AK15">
+      <c r="AL15">
         <v>3551000000</v>
       </c>
-      <c r="AL15">
+      <c r="AM15">
         <v>2783000000</v>
       </c>
-      <c r="AM15">
+      <c r="AN15">
         <v>2792000000</v>
       </c>
-      <c r="AN15">
+      <c r="AO15">
         <v>2616000000</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+    <row r="16" spans="1:41">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B16">
+        <v>3000000</v>
+      </c>
+      <c r="C16">
         <v>121000000</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>114000000</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>22000000</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>517000000</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>514000000</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>511000000</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>13000000</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>10000000</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>8000000</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>5000000</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>3000000</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>199000000</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>15000000</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>14000000</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>12000000</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>67000000</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>85000000</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>87000000</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>196000000</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>580000000</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>122000000</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>121000000</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>116000000</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>112000000</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>666000000</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <v>102000000</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <v>94000000</v>
       </c>
-      <c r="AC16">
+      <c r="AD16">
         <v>86000000</v>
       </c>
-      <c r="AD16">
+      <c r="AE16">
         <v>78000000</v>
-      </c>
-      <c r="AE16">
-        <v>69000000</v>
       </c>
       <c r="AF16">
         <v>69000000</v>
       </c>
       <c r="AG16">
+        <v>69000000</v>
+      </c>
+      <c r="AH16">
         <v>68000000</v>
       </c>
-      <c r="AH16">
+      <c r="AI16">
         <v>67000000</v>
       </c>
-      <c r="AI16">
+      <c r="AJ16">
         <v>124000000</v>
       </c>
-      <c r="AJ16">
+      <c r="AK16">
         <v>142000000</v>
       </c>
-      <c r="AK16">
+      <c r="AL16">
         <v>378000000</v>
       </c>
-      <c r="AL16">
+      <c r="AM16">
         <v>791000000</v>
       </c>
-      <c r="AM16">
+      <c r="AN16">
         <v>354000000</v>
       </c>
-      <c r="AN16">
+      <c r="AO16">
         <v>1904000000</v>
       </c>
     </row>
-    <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17">
+    <row r="17" spans="1:41">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17">
         <v>167000000</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>141000000</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>129000000</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>528000000</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>359000000</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>268000000</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>168000000</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>81000000</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>45000000</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>34000000</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>33000000</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>97000000</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>104000000</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>95000000</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>89000000</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>81000000</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>96000000</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>49000000</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>82000000</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>83000000</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>101000000</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>63000000</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>102000000</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>97000000</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>60000000</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>91000000</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <v>93000000</v>
       </c>
-      <c r="AC17">
+      <c r="AD17">
         <v>88000000</v>
       </c>
-      <c r="AD17">
+      <c r="AE17">
         <v>79000000</v>
       </c>
-      <c r="AE17">
+      <c r="AF17">
         <v>313000000</v>
       </c>
-      <c r="AF17">
+      <c r="AG17">
         <v>290000000</v>
       </c>
-      <c r="AG17">
+      <c r="AH17">
         <v>294000000</v>
       </c>
-      <c r="AH17">
+      <c r="AI17">
         <v>282000000</v>
       </c>
-      <c r="AI17">
+      <c r="AJ17">
         <v>278000000</v>
       </c>
-      <c r="AJ17">
+      <c r="AK17">
         <v>578000000</v>
       </c>
-      <c r="AK17">
+      <c r="AL17">
         <v>520000000</v>
       </c>
-      <c r="AL17">
+      <c r="AM17">
         <v>385000000</v>
       </c>
-      <c r="AM17">
+      <c r="AN17">
         <v>358000000</v>
       </c>
-      <c r="AN17">
+      <c r="AO17">
         <v>751000000</v>
       </c>
     </row>
-    <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+    <row r="18" spans="1:41">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B18">
+        <v>2056000000</v>
+      </c>
+      <c r="C18">
         <v>1703000000</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>1741000000</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>1749000000</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>1710000000</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>1578000000</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>1480000000</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>1254000000</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>1251000000</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>1074000000</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>1110000000</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>1334000000</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>1803000000</v>
       </c>
-      <c r="AI18">
+      <c r="AJ18">
         <v>263000000</v>
       </c>
-      <c r="AJ18">
+      <c r="AK18">
         <v>193000000</v>
       </c>
-      <c r="AL18">
+      <c r="AM18">
         <v>2511000000</v>
       </c>
-      <c r="AM18">
+      <c r="AN18">
         <v>2664000000</v>
       </c>
-      <c r="AN18">
+      <c r="AO18">
         <v>3064000000</v>
       </c>
     </row>
-    <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+    <row r="19" spans="1:41">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B19">
+        <v>2280000000</v>
+      </c>
+      <c r="C19">
         <v>2312000000</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>2355000000</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>2303000000</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>3064000000</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>2749000000</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>2527000000</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>1690000000</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>1623000000</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>1426000000</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>1564000000</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>1947000000</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>2510000000</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>2344000000</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>2332000000</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>2271000000</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>2203000000</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>1958000000</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>1945000000</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>1904000000</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>2435000000</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>2214000000</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>2118000000</v>
       </c>
-      <c r="X19">
+      <c r="Y19">
         <v>2126000000</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>2251000000</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
         <v>2617000000</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <v>2139000000</v>
       </c>
-      <c r="AB19">
+      <c r="AC19">
         <v>2193000000</v>
       </c>
-      <c r="AC19">
+      <c r="AD19">
         <v>2628000000</v>
       </c>
-      <c r="AD19">
+      <c r="AE19">
         <v>2624000000</v>
       </c>
-      <c r="AE19">
+      <c r="AF19">
         <v>3493000000</v>
       </c>
-      <c r="AF19">
+      <c r="AG19">
         <v>3467000000</v>
       </c>
-      <c r="AG19">
+      <c r="AH19">
         <v>4851000000</v>
       </c>
-      <c r="AH19">
+      <c r="AI19">
         <v>5015000000</v>
       </c>
-      <c r="AI19">
+      <c r="AJ19">
         <v>5257000000</v>
       </c>
-      <c r="AJ19">
+      <c r="AK19">
         <v>5981000000</v>
       </c>
-      <c r="AK19">
+      <c r="AL19">
         <v>6558000000</v>
       </c>
-      <c r="AL19">
+      <c r="AM19">
         <v>6923000000</v>
       </c>
-      <c r="AM19">
+      <c r="AN19">
         <v>6733000000</v>
       </c>
-      <c r="AN19">
+      <c r="AO19">
         <v>8906000000</v>
       </c>
     </row>
-    <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+    <row r="20" spans="1:41">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B20">
+        <v>8457000000</v>
+      </c>
+      <c r="C20">
         <v>8488000000</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>8522000000</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>8129000000</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>8141000000</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>8198000000</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>7922000000</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>8488000000</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>8506000000</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>8504000000</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>8434000000</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>8424000000</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>7380000000</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>6768000000</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>6757000000</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>6800000000</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>6605000000</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>6609000000</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>6352000000</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>6372000000</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>6397000000</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>6592000000</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>6612000000</v>
       </c>
-      <c r="X20">
+      <c r="Y20">
         <v>6669000000</v>
       </c>
-      <c r="Y20">
+      <c r="Z20">
         <v>6694000000</v>
       </c>
-      <c r="Z20">
+      <c r="AA20">
         <v>6671000000</v>
       </c>
-      <c r="AA20">
+      <c r="AB20">
         <v>6450000000</v>
       </c>
-      <c r="AB20">
+      <c r="AC20">
         <v>6498000000</v>
       </c>
-      <c r="AC20">
+      <c r="AD20">
         <v>6506000000</v>
       </c>
-      <c r="AD20">
+      <c r="AE20">
         <v>6474000000</v>
       </c>
-      <c r="AE20">
+      <c r="AF20">
         <v>5888000000</v>
       </c>
-      <c r="AF20">
+      <c r="AG20">
         <v>5911000000</v>
       </c>
-      <c r="AG20">
+      <c r="AH20">
         <v>5919000000</v>
       </c>
-      <c r="AH20">
+      <c r="AI20">
         <v>5929000000</v>
       </c>
-      <c r="AI20">
+      <c r="AJ20">
         <v>5953000000</v>
       </c>
-      <c r="AJ20">
+      <c r="AK20">
         <v>5434000000</v>
       </c>
-      <c r="AK20">
+      <c r="AL20">
         <v>5420000000</v>
       </c>
-      <c r="AL20">
+      <c r="AM20">
         <v>5418000000</v>
       </c>
-      <c r="AM20">
+      <c r="AN20">
         <v>5446000000</v>
       </c>
-      <c r="AN20">
+      <c r="AO20">
         <v>5472000000</v>
       </c>
     </row>
-    <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21">
+    <row r="21" spans="1:41">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21">
         <v>604000000</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>544000000</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>416000000</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>383000000</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>346000000</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>318000000</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>324000000</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>342000000</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>316000000</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>319000000</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>328000000</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>415000000</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>411000000</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>418000000</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>420000000</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>421000000</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>425000000</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>424000000</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>425000000</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>429000000</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>584000000</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>1115000000</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <v>1125000000</v>
       </c>
-      <c r="Y21">
+      <c r="Z21">
         <v>1144000000</v>
       </c>
-      <c r="Z21">
+      <c r="AA21">
         <v>1214000000</v>
       </c>
-      <c r="AA21">
+      <c r="AB21">
         <v>1227000000</v>
       </c>
-      <c r="AB21">
+      <c r="AC21">
         <v>1320000000</v>
       </c>
-      <c r="AC21">
+      <c r="AD21">
         <v>1334000000</v>
       </c>
-      <c r="AD21">
+      <c r="AE21">
         <v>1618000000</v>
       </c>
-      <c r="AE21">
+      <c r="AF21">
         <v>1825000000</v>
       </c>
-      <c r="AF21">
+      <c r="AG21">
         <v>1794000000</v>
       </c>
-      <c r="AG21">
+      <c r="AH21">
         <v>1838000000</v>
       </c>
-      <c r="AH21">
+      <c r="AI21">
         <v>2316000000</v>
       </c>
-      <c r="AI21">
+      <c r="AJ21">
         <v>2416000000</v>
       </c>
-      <c r="AJ21">
+      <c r="AK21">
         <v>2469000000</v>
       </c>
-      <c r="AK21">
+      <c r="AL21">
         <v>2292000000</v>
       </c>
-      <c r="AL21">
+      <c r="AM21">
         <v>2257000000</v>
       </c>
-      <c r="AM21">
+      <c r="AN21">
         <v>2106000000</v>
       </c>
-      <c r="AN21">
+      <c r="AO21">
         <v>2210000000</v>
       </c>
     </row>
-    <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+    <row r="22" spans="1:41">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B22">
+        <v>1900000000</v>
+      </c>
+      <c r="C22">
         <v>1584000000</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>1544000000</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>1521000000</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>1507000000</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>1531000000</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>1446000000</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>1369000000</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>1537000000</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>1507000000</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>1514000000</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>1483000000</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>1418000000</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>1559000000</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>1262000000</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>1236000000</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>1316000000</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>1429000000</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>1407000000</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>1434000000</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>1497000000</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>2782000000</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>2875000000</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <v>2947000000</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>2941000000</v>
       </c>
-      <c r="Z22">
+      <c r="AA22">
         <v>3042000000</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>3244000000</v>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <v>3163000000</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <v>3288000000</v>
       </c>
-      <c r="AD22">
+      <c r="AE22">
         <v>3377000000</v>
       </c>
-      <c r="AE22">
+      <c r="AF22">
         <v>3249000000</v>
       </c>
-      <c r="AF22">
+      <c r="AG22">
         <v>3262000000</v>
       </c>
-      <c r="AG22">
+      <c r="AH22">
         <v>3479000000</v>
       </c>
-      <c r="AH22">
+      <c r="AI22">
         <v>3350000000</v>
       </c>
-      <c r="AI22">
+      <c r="AJ22">
         <v>3091000000</v>
       </c>
-      <c r="AJ22">
+      <c r="AK22">
         <v>3298000000</v>
       </c>
-      <c r="AK22">
+      <c r="AL22">
         <v>3700000000</v>
       </c>
-      <c r="AL22">
+      <c r="AM22">
         <v>3456000000</v>
       </c>
-      <c r="AM22">
+      <c r="AN22">
         <v>3170000000</v>
       </c>
-      <c r="AN22">
+      <c r="AO22">
         <v>3266000000</v>
       </c>
     </row>
-    <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+    <row r="23" spans="1:41">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B23">
+        <v>10826000000</v>
+      </c>
+      <c r="C23">
         <v>11137000000</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>11067000000</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>10447000000</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>10425000000</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>10485000000</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>10107000000</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>10618000000</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>10863000000</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>10661000000</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>10616000000</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>10592000000</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>9566000000</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>9110000000</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>8832000000</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>8892000000</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>8342000000</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>8463000000</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>8183000000</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>8231000000</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>8323000000</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>9958000000</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>10602000000</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>10741000000</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>10779000000</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <v>10927000000</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <v>10921000000</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <v>10981000000</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>11128000000</v>
       </c>
-      <c r="AD23">
+      <c r="AE23">
         <v>11469000000</v>
       </c>
-      <c r="AE23">
+      <c r="AF23">
         <v>10962000000</v>
       </c>
-      <c r="AF23">
+      <c r="AG23">
         <v>10967000000</v>
       </c>
-      <c r="AG23">
+      <c r="AH23">
         <v>11236000000</v>
       </c>
-      <c r="AH23">
+      <c r="AI23">
         <v>11595000000</v>
       </c>
-      <c r="AI23">
+      <c r="AJ23">
         <v>11460000000</v>
       </c>
-      <c r="AJ23">
+      <c r="AK23">
         <v>11201000000</v>
       </c>
-      <c r="AK23">
+      <c r="AL23">
         <v>11412000000</v>
       </c>
-      <c r="AL23">
+      <c r="AM23">
         <v>11131000000</v>
       </c>
-      <c r="AM23">
+      <c r="AN23">
         <v>10722000000</v>
       </c>
-      <c r="AN23">
+      <c r="AO23">
         <v>10948000000</v>
       </c>
     </row>
-    <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+    <row r="24" spans="1:41">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B24">
+        <v>13106000000</v>
+      </c>
+      <c r="C24">
         <v>13449000000</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>13422000000</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>12750000000</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>13489000000</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>13234000000</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>12634000000</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>12308000000</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>12486000000</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>12087000000</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>12180000000</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>12539000000</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>12076000000</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>11454000000</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>11164000000</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>11163000000</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>10545000000</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>10421000000</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>10128000000</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>10135000000</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>10758000000</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>12172000000</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>12720000000</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <v>12867000000</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>13030000000</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <v>13544000000</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <v>13060000000</v>
       </c>
-      <c r="AB24">
+      <c r="AC24">
         <v>13174000000</v>
       </c>
-      <c r="AC24">
+      <c r="AD24">
         <v>13756000000</v>
       </c>
-      <c r="AD24">
+      <c r="AE24">
         <v>14093000000</v>
       </c>
-      <c r="AE24">
+      <c r="AF24">
         <v>14455000000</v>
       </c>
-      <c r="AF24">
+      <c r="AG24">
         <v>14434000000</v>
       </c>
-      <c r="AG24">
+      <c r="AH24">
         <v>16087000000</v>
       </c>
-      <c r="AH24">
+      <c r="AI24">
         <v>16610000000</v>
       </c>
-      <c r="AI24">
+      <c r="AJ24">
         <v>16717000000</v>
       </c>
-      <c r="AJ24">
+      <c r="AK24">
         <v>17182000000</v>
       </c>
-      <c r="AK24">
+      <c r="AL24">
         <v>17970000000</v>
       </c>
-      <c r="AL24">
+      <c r="AM24">
         <v>18054000000</v>
       </c>
-      <c r="AM24">
+      <c r="AN24">
         <v>17455000000</v>
       </c>
-      <c r="AN24">
+      <c r="AO24">
         <v>19854000000</v>
       </c>
     </row>
-    <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25">
+    <row r="25" spans="1:41">
+      <c r="A25" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25">
         <v>6227000000</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>6236000000</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>6083000000</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>6017000000</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>5903000000</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>5859000000</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>5779000000</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>5684000000</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>5668000000</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>5650000000</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>5633000000</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>5591000000</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>5543000000</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>5513000000</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>5481000000</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>5386000000</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>5445000000</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>5501000000</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>5701000000</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>5824000000</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>5847000000</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>5826000000</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>5804000000</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>5773000000</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>5763000000</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>5741000000</v>
       </c>
-      <c r="AB25">
+      <c r="AC25">
         <v>5722000000</v>
       </c>
-      <c r="AC25">
+      <c r="AD25">
         <v>4127000000</v>
       </c>
-      <c r="AD25">
+      <c r="AE25">
         <v>4097000000</v>
       </c>
-      <c r="AE25">
+      <c r="AF25">
         <v>3329000000</v>
       </c>
-      <c r="AF25">
+      <c r="AG25">
         <v>3306000000</v>
       </c>
-      <c r="AG25">
+      <c r="AH25">
         <v>3277000000</v>
       </c>
-      <c r="AH25">
+      <c r="AI25">
         <v>3417000000</v>
       </c>
-      <c r="AI25">
+      <c r="AJ25">
         <v>3454000000</v>
       </c>
-      <c r="AJ25">
+      <c r="AK25">
         <v>3413000000</v>
       </c>
-      <c r="AK25">
+      <c r="AL25">
         <v>3498000000</v>
       </c>
-      <c r="AL25">
+      <c r="AM25">
         <v>3599000000</v>
       </c>
-      <c r="AM25">
+      <c r="AN25">
         <v>3604000000</v>
       </c>
-      <c r="AN25">
+      <c r="AO25">
         <v>3569000000</v>
       </c>
     </row>
-    <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q26">
-        <v>1000000</v>
+    <row r="26" spans="1:41">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="R26">
         <v>1000000</v>
@@ -3443,22 +3599,22 @@
       <c r="AB26">
         <v>1000000</v>
       </c>
+      <c r="AC26">
+        <v>1000000</v>
+      </c>
     </row>
-    <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27">
+    <row r="27" spans="1:41">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27">
         <v>308000000</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>310000000</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>311000000</v>
-      </c>
-      <c r="E27">
-        <v>310000000</v>
       </c>
       <c r="F27">
         <v>310000000</v>
@@ -3467,10 +3623,10 @@
         <v>310000000</v>
       </c>
       <c r="H27">
+        <v>310000000</v>
+      </c>
+      <c r="I27">
         <v>308000000</v>
-      </c>
-      <c r="I27">
-        <v>307000000</v>
       </c>
       <c r="J27">
         <v>307000000</v>
@@ -3482,34 +3638,34 @@
         <v>307000000</v>
       </c>
       <c r="M27">
-        <v>305000000</v>
+        <v>307000000</v>
       </c>
       <c r="N27">
         <v>305000000</v>
       </c>
       <c r="O27">
-        <v>304000000</v>
+        <v>305000000</v>
       </c>
       <c r="P27">
         <v>304000000</v>
       </c>
       <c r="Q27">
+        <v>304000000</v>
+      </c>
+      <c r="R27">
         <v>291000000</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>296000000</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>300000000</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>308000000</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>315000000</v>
-      </c>
-      <c r="V27">
-        <v>318000000</v>
       </c>
       <c r="W27">
         <v>318000000</v>
@@ -3518,7 +3674,7 @@
         <v>318000000</v>
       </c>
       <c r="Y27">
-        <v>317000000</v>
+        <v>318000000</v>
       </c>
       <c r="Z27">
         <v>317000000</v>
@@ -3530,658 +3686,667 @@
         <v>317000000</v>
       </c>
       <c r="AC27">
-        <v>286000000</v>
+        <v>317000000</v>
       </c>
       <c r="AD27">
         <v>286000000</v>
       </c>
       <c r="AE27">
-        <v>287000000</v>
+        <v>286000000</v>
       </c>
       <c r="AF27">
         <v>287000000</v>
       </c>
       <c r="AG27">
+        <v>287000000</v>
+      </c>
+      <c r="AH27">
         <v>286000000</v>
       </c>
-      <c r="AH27">
+      <c r="AI27">
         <v>299000000</v>
       </c>
-      <c r="AI27">
+      <c r="AJ27">
         <v>308000000</v>
       </c>
-      <c r="AJ27">
+      <c r="AK27">
         <v>314000000</v>
       </c>
-      <c r="AK27">
+      <c r="AL27">
         <v>325000000</v>
       </c>
-      <c r="AL27">
+      <c r="AM27">
         <v>338000000</v>
-      </c>
-      <c r="AM27">
-        <v>343000000</v>
       </c>
       <c r="AN27">
         <v>343000000</v>
       </c>
+      <c r="AO27">
+        <v>343000000</v>
+      </c>
     </row>
-    <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28">
+    <row r="28" spans="1:41">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28">
         <v>1354000000</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>1075000000</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>680000000</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>379000000</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>192000000</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>155000000</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>305000000</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>130000000</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>304000000</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>625000000</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>1021000000</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>3535000000</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>3836000000</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>4125000000</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>4207000000</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>4257000000</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>4410000000</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>4692000000</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>5166000000</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>5597000000</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>8438000000</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>9153000000</v>
       </c>
-      <c r="X28">
+      <c r="Y28">
         <v>9692000000</v>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <v>10147000000</v>
       </c>
-      <c r="Z28">
+      <c r="AA28">
         <v>15129000000</v>
       </c>
-      <c r="AA28">
+      <c r="AB28">
         <v>15559000000</v>
       </c>
-      <c r="AB28">
+      <c r="AC28">
         <v>16042000000</v>
       </c>
-      <c r="AC28">
+      <c r="AD28">
         <v>16637000000</v>
       </c>
-      <c r="AD28">
+      <c r="AE28">
         <v>18530000000</v>
       </c>
-      <c r="AE28">
+      <c r="AF28">
         <v>18923000000</v>
       </c>
-      <c r="AF28">
+      <c r="AG28">
         <v>19578000000</v>
       </c>
-      <c r="AG28">
+      <c r="AH28">
         <v>20052000000</v>
       </c>
-      <c r="AH28">
+      <c r="AI28">
         <v>21020000000</v>
       </c>
-      <c r="AI28">
+      <c r="AJ28">
         <v>20879000000</v>
       </c>
-      <c r="AJ28">
+      <c r="AK28">
         <v>20693000000</v>
       </c>
-      <c r="AK28">
+      <c r="AL28">
         <v>21235000000</v>
       </c>
-      <c r="AL28">
+      <c r="AM28">
         <v>20279000000</v>
       </c>
-      <c r="AM28">
+      <c r="AN28">
         <v>20369000000</v>
       </c>
-      <c r="AN28">
+      <c r="AO28">
         <v>18958000000</v>
       </c>
     </row>
-    <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+    <row r="29" spans="1:41">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B29">
+        <v>510000000</v>
+      </c>
+      <c r="C29">
         <v>8194000000</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>7758000000</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>7048000000</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>7026000000</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>6256000000</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>6532000000</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>6643000000</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>6335000000</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>6882000000</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>7366000000</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>8178000000</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>9706000000</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>10177000000</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>10531000000</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>10553000000</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>10887000000</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>11045000000</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>11335000000</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>11936000000</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>12353000000</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>14427000000</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>15077000000</v>
       </c>
-      <c r="X29">
+      <c r="Y29">
         <v>15232000000</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>15590000000</v>
       </c>
-      <c r="Z29">
+      <c r="AA29">
         <v>20914000000</v>
       </c>
-      <c r="AA29">
+      <c r="AB29">
         <v>21173000000</v>
       </c>
-      <c r="AB29">
+      <c r="AC29">
         <v>21633000000</v>
       </c>
-      <c r="AC29">
+      <c r="AD29">
         <v>20401000000</v>
       </c>
-      <c r="AD29">
+      <c r="AE29">
         <v>22363000000</v>
       </c>
-      <c r="AE29">
+      <c r="AF29">
         <v>21103000000</v>
       </c>
-      <c r="AF29">
+      <c r="AG29">
         <v>21667000000</v>
       </c>
-      <c r="AG29">
+      <c r="AH29">
         <v>22320000000</v>
       </c>
-      <c r="AH29">
+      <c r="AI29">
         <v>24365000000</v>
       </c>
-      <c r="AI29">
+      <c r="AJ29">
         <v>24354000000</v>
       </c>
-      <c r="AJ29">
+      <c r="AK29">
         <v>24242000000</v>
       </c>
-      <c r="AK29">
+      <c r="AL29">
         <v>24784000000</v>
       </c>
-      <c r="AL29">
+      <c r="AM29">
         <v>23842000000</v>
       </c>
-      <c r="AM29">
+      <c r="AN29">
         <v>23973000000</v>
       </c>
-      <c r="AN29">
+      <c r="AO29">
         <v>22525000000</v>
       </c>
     </row>
-    <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+    <row r="30" spans="1:41">
+      <c r="A30" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B30">
+        <v>8623000000</v>
+      </c>
+      <c r="C30">
         <v>8194000000</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>7758000000</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>7048000000</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>7026000000</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>6256000000</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>6532000000</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>6643000000</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>6335000000</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>6882000000</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>7366000000</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>8178000000</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>9706000000</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>10177000000</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>10531000000</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>10553000000</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>10888000000</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>11046000000</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <v>11336000000</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>11937000000</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>12354000000</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>14428000000</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>15078000000</v>
       </c>
-      <c r="X30">
+      <c r="Y30">
         <v>15233000000</v>
       </c>
-      <c r="Y30">
+      <c r="Z30">
         <v>15591000000</v>
       </c>
-      <c r="Z30">
+      <c r="AA30">
         <v>20915000000</v>
       </c>
-      <c r="AA30">
+      <c r="AB30">
         <v>21174000000</v>
       </c>
-      <c r="AB30">
+      <c r="AC30">
         <v>21634000000</v>
       </c>
-      <c r="AC30">
+      <c r="AD30">
         <v>20401000000</v>
       </c>
-      <c r="AD30">
+      <c r="AE30">
         <v>22363000000</v>
       </c>
-      <c r="AE30">
+      <c r="AF30">
         <v>21103000000</v>
       </c>
-      <c r="AF30">
+      <c r="AG30">
         <v>21667000000</v>
       </c>
-      <c r="AG30">
+      <c r="AH30">
         <v>22320000000</v>
       </c>
-      <c r="AH30">
+      <c r="AI30">
         <v>24365000000</v>
       </c>
-      <c r="AI30">
+      <c r="AJ30">
         <v>24354000000</v>
       </c>
-      <c r="AJ30">
+      <c r="AK30">
         <v>24242000000</v>
       </c>
-      <c r="AK30">
+      <c r="AL30">
         <v>24784000000</v>
       </c>
-      <c r="AL30">
+      <c r="AM30">
         <v>23842000000</v>
       </c>
-      <c r="AM30">
+      <c r="AN30">
         <v>23973000000</v>
       </c>
-      <c r="AN30">
+      <c r="AO30">
         <v>22525000000</v>
       </c>
     </row>
-    <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+    <row r="31" spans="1:41">
+      <c r="A31" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B31">
+        <v>21729000000</v>
+      </c>
+      <c r="C31">
         <v>21643000000</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>21180000000</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>19798000000</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>20515000000</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>19490000000</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>19166000000</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>18951000000</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>18821000000</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>18969000000</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>19546000000</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>20717000000</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>21782000000</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>21631000000</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>21695000000</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>21716000000</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>21433000000</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <v>21467000000</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <v>21464000000</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <v>22072000000</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>23112000000</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>26600000000</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>27798000000</v>
       </c>
-      <c r="X31">
+      <c r="Y31">
         <v>28100000000</v>
       </c>
-      <c r="Y31">
+      <c r="Z31">
         <v>28621000000</v>
       </c>
-      <c r="Z31">
+      <c r="AA31">
         <v>34459000000</v>
       </c>
-      <c r="AA31">
+      <c r="AB31">
         <v>34234000000</v>
       </c>
-      <c r="AB31">
+      <c r="AC31">
         <v>34808000000</v>
       </c>
-      <c r="AC31">
+      <c r="AD31">
         <v>34157000000</v>
       </c>
-      <c r="AD31">
+      <c r="AE31">
         <v>36456000000</v>
       </c>
-      <c r="AE31">
+      <c r="AF31">
         <v>35558000000</v>
       </c>
-      <c r="AF31">
+      <c r="AG31">
         <v>36101000000</v>
       </c>
-      <c r="AG31">
+      <c r="AH31">
         <v>38407000000</v>
       </c>
-      <c r="AH31">
+      <c r="AI31">
         <v>40975000000</v>
       </c>
-      <c r="AI31">
+      <c r="AJ31">
         <v>41071000000</v>
       </c>
-      <c r="AJ31">
+      <c r="AK31">
         <v>41424000000</v>
       </c>
-      <c r="AK31">
+      <c r="AL31">
         <v>42754000000</v>
       </c>
-      <c r="AL31">
+      <c r="AM31">
         <v>41896000000</v>
       </c>
-      <c r="AM31">
+      <c r="AN31">
         <v>41428000000</v>
       </c>
-      <c r="AN31">
+      <c r="AO31">
         <v>42379000000</v>
       </c>
     </row>
-    <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32">
+    <row r="32" spans="1:41">
+      <c r="A32" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32">
         <v>308308000</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>309615000</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>311263000</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>309745000</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>309727000</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>309673000</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>308437000</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>306980000</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>307077000</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>307144000</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>307158000</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>304955000</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>304706000</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>304481000</v>
       </c>
-      <c r="P32">
+      <c r="Q32">
         <v>304281000</v>
       </c>
-      <c r="Q32">
+      <c r="R32">
         <v>291435000</v>
       </c>
-      <c r="R32">
+      <c r="S32">
         <v>296253000</v>
       </c>
-      <c r="S32">
+      <c r="T32">
         <v>299688000</v>
       </c>
-      <c r="T32">
+      <c r="U32">
         <v>308055000</v>
       </c>
-      <c r="U32">
+      <c r="V32">
         <v>315054000</v>
       </c>
-      <c r="V32">
+      <c r="W32">
         <v>317754000</v>
       </c>
-      <c r="W32">
+      <c r="X32">
         <v>317844000</v>
       </c>
-      <c r="X32">
+      <c r="Y32">
         <v>317916000</v>
       </c>
-      <c r="Y32">
+      <c r="Z32">
         <v>316523000</v>
       </c>
-      <c r="Z32">
+      <c r="AA32">
         <v>316621000</v>
       </c>
-      <c r="AA32">
+      <c r="AB32">
         <v>316674000</v>
       </c>
-      <c r="AB32">
+      <c r="AC32">
         <v>316719000</v>
       </c>
-      <c r="AC32">
+      <c r="AD32">
         <v>286046000</v>
       </c>
-      <c r="AD32">
+      <c r="AE32">
         <v>286097000</v>
       </c>
-      <c r="AE32">
+      <c r="AF32">
         <v>287058000</v>
       </c>
-      <c r="AF32">
+      <c r="AG32">
         <v>287382000</v>
       </c>
-      <c r="AG32">
+      <c r="AH32">
         <v>285835000</v>
       </c>
-      <c r="AH32">
+      <c r="AI32">
         <v>298969000</v>
       </c>
-      <c r="AI32">
+      <c r="AJ32">
         <v>307725000</v>
       </c>
-      <c r="AJ32">
+      <c r="AK32">
         <v>314208000</v>
       </c>
-      <c r="AK32">
+      <c r="AL32">
         <v>325314000</v>
       </c>
-      <c r="AL32">
+      <c r="AM32">
         <v>337575000</v>
       </c>
-      <c r="AM32">
+      <c r="AN32">
         <v>343401000</v>
       </c>
-      <c r="AN32">
+      <c r="AO32">
         <v>343298000</v>
       </c>
     </row>
-    <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
-      </c>
-      <c r="N33">
-        <v>0</v>
+    <row r="33" spans="1:41">
+      <c r="A33" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="O33">
         <v>0</v>
@@ -4190,7 +4355,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>575000</v>
+        <v>0</v>
       </c>
       <c r="R33">
         <v>575000</v>
@@ -4225,370 +4390,382 @@
       <c r="AB33">
         <v>575000</v>
       </c>
+      <c r="AC33">
+        <v>575000</v>
+      </c>
     </row>
-    <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
+    <row r="34" spans="1:41">
+      <c r="A34" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B34">
+        <v>8623000000</v>
+      </c>
+      <c r="C34">
         <v>7834000000</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>7398000000</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>6688000000</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>6666000000</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>5896000000</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>6172000000</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>6283000000</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>5975000000</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>6522000000</v>
       </c>
-      <c r="K34">
+      <c r="L34">
         <v>7006000000</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <v>7818000000</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <v>9346000000</v>
       </c>
-      <c r="N34">
+      <c r="O34">
         <v>9817000000</v>
       </c>
-      <c r="O34">
+      <c r="P34">
         <v>10171000000</v>
       </c>
-      <c r="P34">
+      <c r="Q34">
         <v>10193000000</v>
       </c>
-      <c r="Q34">
+      <c r="R34">
         <v>10528000000</v>
       </c>
-      <c r="R34">
+      <c r="S34">
         <v>10686000000</v>
       </c>
-      <c r="S34">
+      <c r="T34">
         <v>10976000000</v>
       </c>
-      <c r="T34">
+      <c r="U34">
         <v>11577000000</v>
       </c>
-      <c r="U34">
+      <c r="V34">
         <v>11994000000</v>
       </c>
-      <c r="V34">
+      <c r="W34">
         <v>14068000000</v>
       </c>
-      <c r="W34">
+      <c r="X34">
         <v>14728000000</v>
       </c>
-      <c r="X34">
+      <c r="Y34">
         <v>14858000000</v>
       </c>
-      <c r="Y34">
+      <c r="Z34">
         <v>15216000000</v>
       </c>
-      <c r="Z34">
+      <c r="AA34">
         <v>20540000000</v>
       </c>
-      <c r="AA34">
+      <c r="AB34">
         <v>20799000000</v>
       </c>
-      <c r="AB34">
+      <c r="AC34">
         <v>21259000000</v>
       </c>
-      <c r="AC34">
+      <c r="AD34">
         <v>20026000000</v>
       </c>
-      <c r="AD34">
+      <c r="AE34">
         <v>20890000000</v>
       </c>
-      <c r="AE34">
+      <c r="AF34">
         <v>19630000000</v>
       </c>
-      <c r="AF34">
+      <c r="AG34">
         <v>19809000000</v>
       </c>
-      <c r="AG34">
+      <c r="AH34">
         <v>20462000000</v>
       </c>
-      <c r="AH34">
+      <c r="AI34">
         <v>22507000000</v>
       </c>
-      <c r="AI34">
+      <c r="AJ34">
         <v>22496000000</v>
       </c>
-      <c r="AJ34">
+      <c r="AK34">
         <v>22258000000</v>
       </c>
-      <c r="AK34">
+      <c r="AL34">
         <v>22915000000</v>
       </c>
-      <c r="AL34">
+      <c r="AM34">
         <v>21973000000</v>
       </c>
-      <c r="AM34">
+      <c r="AN34">
         <v>22104000000</v>
       </c>
-      <c r="AN34">
+      <c r="AO34">
         <v>20656000000</v>
       </c>
     </row>
-    <row r="35" spans="1:40">
-      <c r="A35" t="s">
-        <v>34</v>
+    <row r="35" spans="1:41">
+      <c r="A35" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="B35">
+        <v>5974000000</v>
+      </c>
+      <c r="C35">
         <v>6225000000</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>6477000000</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>6781000000</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>5945000000</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>6293000000</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>6003000000</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>6635000000</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>6777000000</v>
       </c>
-      <c r="J35">
+      <c r="K35">
         <v>7227000000</v>
       </c>
-      <c r="K35">
+      <c r="L35">
         <v>6793000000</v>
       </c>
-      <c r="L35">
+      <c r="M35">
         <v>6347000000</v>
       </c>
-      <c r="M35">
+      <c r="N35">
         <v>6034000000</v>
       </c>
-      <c r="N35">
+      <c r="O35">
         <v>4920000000</v>
       </c>
-      <c r="O35">
+      <c r="P35">
         <v>4563000000</v>
       </c>
-      <c r="P35">
+      <c r="Q35">
         <v>4512000000</v>
       </c>
-      <c r="Q35">
+      <c r="R35">
         <v>3978000000</v>
       </c>
-      <c r="R35">
+      <c r="S35">
         <v>3690000000</v>
       </c>
-      <c r="S35">
+      <c r="T35">
         <v>3531000000</v>
       </c>
-      <c r="T35">
+      <c r="U35">
         <v>2842000000</v>
       </c>
-      <c r="U35">
+      <c r="V35">
         <v>2130000000</v>
       </c>
-      <c r="V35">
+      <c r="W35">
         <v>4188000000</v>
       </c>
-      <c r="W35">
+      <c r="X35">
         <v>4241000000</v>
       </c>
-      <c r="X35">
+      <c r="Y35">
         <v>4099000000</v>
       </c>
-      <c r="Y35">
+      <c r="Z35">
         <v>4074000000</v>
       </c>
-      <c r="Z35">
+      <c r="AA35">
         <v>3808000000</v>
       </c>
-      <c r="AA35">
+      <c r="AB35">
         <v>3457000000</v>
       </c>
-      <c r="AB35">
+      <c r="AC35">
         <v>3035000000</v>
       </c>
-      <c r="AC35">
+      <c r="AD35">
         <v>3876000000</v>
       </c>
-      <c r="AD35">
+      <c r="AE35">
         <v>3539000000</v>
       </c>
-      <c r="AE35">
+      <c r="AF35">
         <v>5026000000</v>
       </c>
-      <c r="AF35">
+      <c r="AG35">
         <v>4474000000</v>
       </c>
-      <c r="AG35">
+      <c r="AH35">
         <v>3543000000</v>
       </c>
-      <c r="AH35">
+      <c r="AI35">
         <v>1876000000</v>
       </c>
-      <c r="AI35">
+      <c r="AJ35">
         <v>3872000000</v>
       </c>
-      <c r="AJ35">
+      <c r="AK35">
         <v>4288000000</v>
       </c>
-      <c r="AK35">
+      <c r="AL35">
         <v>3984000000</v>
       </c>
-      <c r="AL35">
+      <c r="AM35">
         <v>5888000000</v>
       </c>
-      <c r="AM35">
+      <c r="AN35">
         <v>5075000000</v>
       </c>
-      <c r="AN35">
+      <c r="AO35">
         <v>6932000000</v>
       </c>
     </row>
-    <row r="36" spans="1:40">
-      <c r="A36" t="s">
-        <v>35</v>
+    <row r="36" spans="1:41">
+      <c r="A36" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="B36">
+        <v>8460000000</v>
+      </c>
+      <c r="C36">
         <v>8609000000</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>8636000000</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>8151000000</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>8658000000</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>8712000000</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>8433000000</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>8501000000</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <v>8516000000</v>
       </c>
-      <c r="J36">
+      <c r="K36">
         <v>8512000000</v>
       </c>
-      <c r="K36">
+      <c r="L36">
         <v>8439000000</v>
       </c>
-      <c r="L36">
+      <c r="M36">
         <v>8427000000</v>
       </c>
-      <c r="M36">
+      <c r="N36">
         <v>7579000000</v>
       </c>
-      <c r="N36">
+      <c r="O36">
         <v>6783000000</v>
       </c>
-      <c r="O36">
+      <c r="P36">
         <v>6771000000</v>
       </c>
-      <c r="P36">
+      <c r="Q36">
         <v>6812000000</v>
       </c>
-      <c r="Q36">
+      <c r="R36">
         <v>6672000000</v>
       </c>
-      <c r="R36">
+      <c r="S36">
         <v>6694000000</v>
       </c>
-      <c r="S36">
+      <c r="T36">
         <v>6439000000</v>
       </c>
-      <c r="T36">
+      <c r="U36">
         <v>6568000000</v>
       </c>
-      <c r="U36">
+      <c r="V36">
         <v>6977000000</v>
       </c>
-      <c r="V36">
+      <c r="W36">
         <v>6714000000</v>
       </c>
-      <c r="W36">
+      <c r="X36">
         <v>6733000000</v>
       </c>
-      <c r="X36">
+      <c r="Y36">
         <v>6785000000</v>
       </c>
-      <c r="Y36">
+      <c r="Z36">
         <v>6806000000</v>
       </c>
-      <c r="Z36">
+      <c r="AA36">
         <v>7337000000</v>
       </c>
-      <c r="AA36">
+      <c r="AB36">
         <v>6552000000</v>
-      </c>
-      <c r="AB36">
-        <v>6592000000</v>
       </c>
       <c r="AC36">
         <v>6592000000</v>
       </c>
       <c r="AD36">
+        <v>6592000000</v>
+      </c>
+      <c r="AE36">
         <v>6552000000</v>
       </c>
-      <c r="AE36">
+      <c r="AF36">
         <v>5957000000</v>
       </c>
-      <c r="AF36">
+      <c r="AG36">
         <v>5980000000</v>
       </c>
-      <c r="AG36">
+      <c r="AH36">
         <v>5987000000</v>
       </c>
-      <c r="AH36">
+      <c r="AI36">
         <v>5996000000</v>
       </c>
-      <c r="AI36">
+      <c r="AJ36">
         <v>6077000000</v>
       </c>
-      <c r="AJ36">
+      <c r="AK36">
         <v>5576000000</v>
       </c>
-      <c r="AK36">
+      <c r="AL36">
         <v>5798000000</v>
       </c>
-      <c r="AL36">
+      <c r="AM36">
         <v>6209000000</v>
       </c>
-      <c r="AM36">
+      <c r="AN36">
         <v>5800000000</v>
       </c>
-      <c r="AN36">
+      <c r="AO36">
         <v>7376000000</v>
       </c>
     </row>
